--- a/www/ig/fhir/annuaire/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$130</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4569" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>
@@ -647,13 +647,10 @@
 </t>
   </si>
   <si>
-    <t>Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
+    <t>Secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie (Synonyme : secteurConventionnement).</t>
   </si>
   <si>
     <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire le secteur de conventionnement du professionnel libéral auquel il a adhéré auprès de l'Assurance Maladie.</t>
-  </si>
-  <si>
-    <t>Synonyme : secteurConventionnement</t>
   </si>
   <si>
     <t>PractitionerRole.extension:as-ext-practitionerrole-hascas</t>
@@ -1416,6 +1413,69 @@
     <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom:mailbox-mss.extension:emailType.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom:mailbox-mss.extension:emailType.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom:mailbox-mss.extension:emailType.url</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://interopsante.org/fhir/StructureDefinition/FrContactPointEmailType</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom:mailbox-mss.extension:emailType.value[x]</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R256-TypeMessagerie/FHIR/TRE-R256-TypeMessagerie"/&gt;
+  &lt;code value="MSSANTE"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>http://interopsante.org/fhir/ValueSet/fr-email-type</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata</t>
   </si>
   <si>
@@ -1435,13 +1495,7 @@
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.id</t>
   </si>
   <si>
-    <t>PractitionerRole.telecom.extension.id</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.extension.extension</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:type</t>
@@ -1457,9 +1511,6 @@
 PER pour une BAL personnelle, rattachée à une personne physique</t>
   </si>
   <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:type.id</t>
   </si>
   <si>
@@ -1472,43 +1523,19 @@
     <t>PractitionerRole.telecom.extension.extension.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:type.url</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.extension.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:type.value[x]</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J139-TypeBAL-RASS/FHIR/JDV-J139-TypeBAL-RASS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:description</t>
@@ -1636,16 +1663,10 @@
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.url</t>
   </si>
   <si>
-    <t>PractitionerRole.telecom.extension.url</t>
-  </si>
-  <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-mailbox-mss-metadata</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.value[x]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.extension.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -2272,7 +2293,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN126"/>
+  <dimension ref="A1:AN130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4414,9 +4435,7 @@
       <c r="M19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -4494,13 +4513,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4522,13 +4541,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4608,13 +4627,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
@@ -4636,13 +4655,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4722,10 +4741,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4751,16 +4770,16 @@
         <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4809,7 +4828,7 @@
         <v>117</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4838,10 +4857,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4864,17 +4883,17 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4911,10 +4930,10 @@
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AC23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
@@ -4923,7 +4942,7 @@
         <v>117</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4938,27 +4957,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>77</v>
@@ -4980,17 +4999,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -5039,7 +5058,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5054,24 +5073,24 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5180,10 +5199,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5294,10 +5313,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5323,16 +5342,16 @@
         <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -5357,31 +5376,31 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5399,7 +5418,7 @@
         <v>102</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5410,10 +5429,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5436,19 +5455,19 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5476,28 +5495,28 @@
         <v>153</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5512,10 +5531,10 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5526,10 +5545,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5555,16 +5574,16 @@
         <v>137</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5574,46 +5593,46 @@
         <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="T29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="T29" t="s" s="2">
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5628,13 +5647,13 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5642,10 +5661,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5671,13 +5690,13 @@
         <v>104</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5691,43 +5710,43 @@
         <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5742,13 +5761,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5756,10 +5775,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5782,16 +5801,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5841,7 +5860,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5853,16 +5872,16 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5870,10 +5889,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5896,16 +5915,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5955,7 +5974,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5967,16 +5986,16 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5984,13 +6003,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -6012,17 +6031,17 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -6071,7 +6090,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6086,24 +6105,24 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6212,10 +6231,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6326,10 +6345,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6355,16 +6374,16 @@
         <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6389,31 +6408,31 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6431,7 +6450,7 @@
         <v>102</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6442,10 +6461,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6468,19 +6487,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -6508,28 +6527,28 @@
         <v>153</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AA37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6544,10 +6563,10 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6558,10 +6577,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6587,16 +6606,16 @@
         <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6606,46 +6625,46 @@
         <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T38" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6660,13 +6679,13 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6674,10 +6693,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6703,13 +6722,13 @@
         <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6723,43 +6742,43 @@
         <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6774,13 +6793,13 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6788,10 +6807,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6814,16 +6833,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6873,7 +6892,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6885,16 +6904,16 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6902,10 +6921,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6928,16 +6947,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6987,7 +7006,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6999,16 +7018,16 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -7016,10 +7035,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7042,26 +7061,26 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="O42" t="s" s="2">
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="P42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q42" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="R42" t="s" s="2">
         <v>77</v>
       </c>
@@ -7105,7 +7124,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7120,24 +7139,24 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7160,19 +7179,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -7221,7 +7240,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7233,27 +7252,27 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7362,10 +7381,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7476,10 +7495,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7502,16 +7521,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7561,25 +7580,25 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7590,10 +7609,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7616,69 +7635,69 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q47" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="R47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7686,16 +7705,16 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7706,10 +7725,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7732,16 +7751,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7791,7 +7810,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7803,13 +7822,13 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7820,10 +7839,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7846,16 +7865,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7905,7 +7924,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7917,13 +7936,13 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7934,10 +7953,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7960,19 +7979,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -8000,16 +8019,16 @@
         <v>163</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
@@ -8019,7 +8038,7 @@
         <v>117</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8034,13 +8053,13 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM50" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -8048,13 +8067,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -8076,19 +8095,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -8113,11 +8132,11 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -8135,7 +8154,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8150,13 +8169,13 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM51" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -8164,13 +8183,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C52" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>77</v>
@@ -8192,19 +8211,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8229,11 +8248,11 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -8251,7 +8270,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8266,13 +8285,13 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8280,13 +8299,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -8308,19 +8327,19 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8345,11 +8364,11 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -8367,7 +8386,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8382,13 +8401,13 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM53" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8396,13 +8415,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
@@ -8424,19 +8443,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -8461,11 +8480,11 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8483,7 +8502,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8498,13 +8517,13 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM54" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8512,13 +8531,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -8540,19 +8559,19 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8577,11 +8596,11 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8599,7 +8618,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8614,13 +8633,13 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8628,13 +8647,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -8656,19 +8675,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8693,11 +8712,11 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8715,7 +8734,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8730,13 +8749,13 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM56" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8744,13 +8763,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
@@ -8772,19 +8791,19 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8809,11 +8828,11 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8831,7 +8850,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8846,13 +8865,13 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8860,10 +8879,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8874,7 +8893,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8886,16 +8905,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8924,11 +8943,11 @@
         <v>177</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8945,7 +8964,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8960,13 +8979,13 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8974,10 +8993,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9000,16 +9019,16 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9059,7 +9078,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9071,27 +9090,27 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9114,16 +9133,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9173,7 +9192,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9185,13 +9204,13 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -9202,10 +9221,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9228,17 +9247,17 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -9275,17 +9294,17 @@
         <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9297,16 +9316,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -9314,13 +9333,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>77</v>
@@ -9342,17 +9361,17 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -9401,7 +9420,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9413,16 +9432,16 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AL62" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9430,10 +9449,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9542,10 +9561,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9656,16 +9675,16 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="B65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="D65" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9684,17 +9703,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>114</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9772,14 +9789,12 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9791,7 +9806,7 @@
         <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>77</v>
@@ -9800,13 +9815,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>452</v>
+        <v>104</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>453</v>
+        <v>105</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9857,25 +9872,25 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9886,10 +9901,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9900,7 +9915,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9912,13 +9927,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9957,37 +9972,37 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9998,21 +10013,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -10024,16 +10039,16 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>112</v>
+        <v>457</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>113</v>
+        <v>458</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>114</v>
+        <v>459</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10041,7 +10056,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -10071,31 +10086,31 @@
         <v>77</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -10112,14 +10127,12 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10140,13 +10153,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10158,7 +10171,7 @@
         <v>77</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>77</v>
+        <v>466</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>77</v>
@@ -10173,13 +10186,11 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>77</v>
+        <v>467</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -10197,25 +10208,25 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>118</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -10226,12 +10237,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
       </c>
@@ -10252,13 +10265,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>104</v>
+        <v>471</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>106</v>
+        <v>473</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10309,25 +10322,25 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10338,10 +10351,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10352,7 +10365,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -10364,13 +10377,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>105</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10409,37 +10422,37 @@
         <v>77</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10450,21 +10463,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -10476,16 +10489,16 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>112</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>113</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>472</v>
+        <v>114</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10493,7 +10506,7 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>77</v>
@@ -10523,31 +10536,31 @@
         <v>77</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>473</v>
+        <v>118</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
@@ -10564,12 +10577,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10590,13 +10605,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10623,11 +10638,13 @@
         <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="Y73" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z73" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>77</v>
@@ -10645,25 +10662,25 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10674,14 +10691,12 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10702,13 +10717,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>482</v>
+        <v>105</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10759,25 +10774,25 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10788,10 +10803,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10802,7 +10817,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10814,13 +10829,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10859,37 +10874,37 @@
         <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10900,10 +10915,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10911,10 +10926,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10926,22 +10941,24 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -10971,37 +10988,37 @@
         <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -11015,7 +11032,7 @@
         <v>485</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11023,7 +11040,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -11038,24 +11055,22 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>481</v>
+        <v>77</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>77</v>
@@ -11073,13 +11088,11 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -11097,19 +11110,19 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -11126,12 +11139,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11152,13 +11167,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11209,25 +11224,25 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -11238,14 +11253,12 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>77</v>
       </c>
@@ -11254,7 +11267,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -11266,13 +11279,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>467</v>
+        <v>105</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11323,25 +11336,25 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11352,10 +11365,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11366,7 +11379,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -11378,13 +11391,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11423,37 +11436,37 @@
         <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -11464,10 +11477,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11475,10 +11488,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11490,22 +11503,24 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -11535,37 +11550,37 @@
         <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
@@ -11576,10 +11591,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11587,7 +11602,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>88</v>
@@ -11602,24 +11617,22 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>77</v>
@@ -11661,19 +11674,19 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11690,12 +11703,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11704,7 +11719,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11716,13 +11731,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11773,25 +11788,25 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
@@ -11802,14 +11817,12 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11830,13 +11843,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>495</v>
+        <v>105</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11887,25 +11900,25 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>
@@ -11916,10 +11929,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11930,7 +11943,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11942,13 +11955,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11987,37 +12000,37 @@
         <v>77</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>77</v>
@@ -12028,10 +12041,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12039,10 +12052,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -12054,22 +12067,24 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>77</v>
+        <v>496</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -12099,37 +12114,37 @@
         <v>77</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -12140,10 +12155,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12151,7 +12166,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12166,24 +12181,22 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>494</v>
+        <v>77</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>77</v>
@@ -12225,19 +12238,19 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
@@ -12254,12 +12267,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12280,13 +12295,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12337,25 +12352,25 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12366,14 +12381,12 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12382,7 +12395,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
@@ -12394,13 +12407,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>467</v>
+        <v>105</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12451,25 +12464,25 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12480,10 +12493,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12494,7 +12507,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -12506,13 +12519,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12551,37 +12564,37 @@
         <v>77</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
@@ -12592,10 +12605,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12603,10 +12616,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12618,22 +12631,24 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -12663,37 +12678,37 @@
         <v>77</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
@@ -12704,10 +12719,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12715,7 +12730,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>88</v>
@@ -12730,24 +12745,22 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>501</v>
+        <v>77</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>77</v>
@@ -12789,19 +12802,19 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>77</v>
@@ -12818,12 +12831,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
       </c>
@@ -12832,7 +12847,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -12844,13 +12859,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12901,25 +12916,25 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12930,14 +12945,12 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12958,13 +12971,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>508</v>
+        <v>105</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13015,25 +13028,25 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -13044,10 +13057,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13058,7 +13071,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -13070,13 +13083,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13115,37 +13128,37 @@
         <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -13156,10 +13169,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13167,10 +13180,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
@@ -13182,22 +13195,24 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -13227,37 +13242,37 @@
         <v>77</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -13268,10 +13283,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13279,7 +13294,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>88</v>
@@ -13294,24 +13309,22 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>507</v>
+        <v>77</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>77</v>
@@ -13353,19 +13366,19 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>77</v>
@@ -13382,12 +13395,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13408,13 +13423,13 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13465,25 +13480,25 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>77</v>
@@ -13494,14 +13509,12 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
         <v>77</v>
       </c>
@@ -13522,13 +13535,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>515</v>
+        <v>105</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13579,25 +13592,25 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>77</v>
@@ -13608,10 +13621,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13622,7 +13635,7 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
@@ -13634,13 +13647,13 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13679,37 +13692,37 @@
         <v>77</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>77</v>
@@ -13720,10 +13733,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13731,10 +13744,10 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
@@ -13746,22 +13759,24 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -13791,37 +13806,37 @@
         <v>77</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -13832,10 +13847,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13843,7 +13858,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>88</v>
@@ -13858,24 +13873,22 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>137</v>
+        <v>316</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>514</v>
+        <v>77</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>77</v>
@@ -13917,19 +13930,19 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>77</v>
@@ -13946,12 +13959,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
       </c>
@@ -13972,13 +13987,13 @@
         <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>476</v>
+        <v>523</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14029,25 +14044,25 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>77</v>
@@ -14058,10 +14073,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14069,7 +14084,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>88</v>
@@ -14084,24 +14099,22 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>470</v>
+        <v>105</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>522</v>
+        <v>77</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>77</v>
@@ -14143,10 +14156,10 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>88</v>
@@ -14161,7 +14174,7 @@
         <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>77</v>
@@ -14172,10 +14185,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14198,13 +14211,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>525</v>
+        <v>111</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14243,37 +14256,37 @@
         <v>77</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>77</v>
@@ -14287,7 +14300,7 @@
         <v>526</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>527</v>
+        <v>484</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14307,19 +14320,19 @@
         <v>77</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>529</v>
+        <v>458</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>530</v>
+        <v>459</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14327,10 +14340,10 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="S106" t="s" s="2">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="T106" t="s" s="2">
         <v>77</v>
@@ -14345,13 +14358,13 @@
         <v>77</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>532</v>
+        <v>77</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>533</v>
+        <v>77</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>77</v>
@@ -14369,28 +14382,28 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>534</v>
+        <v>461</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>535</v>
+        <v>77</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>536</v>
+        <v>77</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>537</v>
+        <v>102</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>538</v>
+        <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>77</v>
@@ -14398,10 +14411,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>540</v>
+        <v>486</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14409,35 +14422,31 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>541</v>
+        <v>464</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14485,7 +14494,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>545</v>
+        <v>468</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14500,13 +14509,13 @@
         <v>101</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>546</v>
+        <v>77</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>547</v>
+        <v>102</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>77</v>
@@ -14514,10 +14523,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>549</v>
+        <v>456</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14525,7 +14534,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>88</v>
@@ -14534,32 +14543,30 @@
         <v>77</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>550</v>
+        <v>457</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>551</v>
+        <v>458</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -14577,13 +14584,13 @@
         <v>77</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>554</v>
+        <v>77</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>555</v>
+        <v>77</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>77</v>
@@ -14601,28 +14608,28 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>556</v>
+        <v>461</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>557</v>
+        <v>77</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>558</v>
+        <v>102</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>559</v>
+        <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>77</v>
@@ -14630,10 +14637,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>561</v>
+        <v>463</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14644,7 +14651,7 @@
         <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>77</v>
@@ -14653,20 +14660,18 @@
         <v>77</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>563</v>
+        <v>464</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -14715,7 +14720,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>566</v>
+        <v>468</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14730,10 +14735,10 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>77</v>
@@ -14744,10 +14749,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14755,7 +14760,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>88</v>
@@ -14770,16 +14775,16 @@
         <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>287</v>
+        <v>536</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14790,7 +14795,7 @@
         <v>77</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>77</v>
+        <v>537</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>77</v>
@@ -14805,13 +14810,13 @@
         <v>77</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>77</v>
+        <v>538</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>77</v>
+        <v>539</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>77</v>
@@ -14829,7 +14834,7 @@
         <v>77</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -14838,19 +14843,19 @@
         <v>88</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>100</v>
+        <v>541</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>289</v>
+        <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>102</v>
+        <v>542</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>292</v>
+        <v>544</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>77</v>
@@ -14858,10 +14863,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14869,10 +14874,10 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>89</v>
@@ -14881,21 +14886,23 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>574</v>
+        <v>104</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="O111" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>77</v>
       </c>
@@ -14943,13 +14950,13 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>100</v>
@@ -14958,13 +14965,13 @@
         <v>101</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>77</v>
+        <v>552</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>77</v>
@@ -14972,10 +14979,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14992,22 +14999,26 @@
         <v>77</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>105</v>
+        <v>556</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>77</v>
       </c>
@@ -15031,13 +15042,13 @@
         <v>77</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>77</v>
+        <v>560</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>77</v>
+        <v>561</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>77</v>
@@ -15055,7 +15066,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>107</v>
+        <v>562</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15064,19 +15075,19 @@
         <v>88</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>77</v>
+        <v>563</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>108</v>
+        <v>564</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>77</v>
+        <v>565</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>77</v>
@@ -15084,21 +15095,21 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>77</v>
@@ -15107,19 +15118,19 @@
         <v>77</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>111</v>
+        <v>568</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>112</v>
+        <v>569</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>113</v>
+        <v>570</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>114</v>
+        <v>571</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15157,37 +15168,37 @@
         <v>77</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>118</v>
+        <v>572</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>77</v>
@@ -15198,46 +15209,44 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>582</v>
+        <v>77</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>77</v>
       </c>
@@ -15285,28 +15294,28 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>102</v>
+        <v>578</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>77</v>
@@ -15314,10 +15323,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15328,10 +15337,10 @@
         <v>78</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I115" t="s" s="2">
         <v>77</v>
@@ -15340,16 +15349,16 @@
         <v>77</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>173</v>
+        <v>580</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>530</v>
+        <v>583</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15375,13 +15384,13 @@
         <v>77</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>589</v>
+        <v>77</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>590</v>
+        <v>77</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>77</v>
@@ -15399,7 +15408,7 @@
         <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15417,7 +15426,7 @@
         <v>77</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>77</v>
@@ -15428,10 +15437,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15454,13 +15463,13 @@
         <v>77</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>592</v>
+        <v>105</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>593</v>
+        <v>106</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -15511,7 +15520,7 @@
         <v>77</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>591</v>
+        <v>107</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15520,16 +15529,16 @@
         <v>88</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>578</v>
+        <v>108</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>77</v>
@@ -15540,21 +15549,21 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>77</v>
@@ -15566,16 +15575,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>595</v>
+        <v>111</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>596</v>
+        <v>112</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>597</v>
+        <v>113</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>598</v>
+        <v>114</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -15613,37 +15622,37 @@
         <v>77</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>594</v>
+        <v>118</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>578</v>
+        <v>102</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>77</v>
@@ -15654,44 +15663,46 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>77</v>
+        <v>588</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>595</v>
+        <v>111</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O118" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
       </c>
@@ -15739,25 +15750,25 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>578</v>
+        <v>102</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>77</v>
@@ -15768,10 +15779,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15782,10 +15793,10 @@
         <v>78</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>77</v>
@@ -15794,15 +15805,17 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>574</v>
+        <v>173</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>77</v>
@@ -15827,13 +15840,13 @@
         <v>77</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>77</v>
+        <v>595</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>77</v>
+        <v>596</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>77</v>
@@ -15851,7 +15864,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -15869,7 +15882,7 @@
         <v>77</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
@@ -15880,10 +15893,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -15906,13 +15919,13 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>105</v>
+        <v>598</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>106</v>
+        <v>599</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -15963,7 +15976,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>107</v>
+        <v>597</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -15972,16 +15985,16 @@
         <v>88</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>108</v>
+        <v>584</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>77</v>
@@ -15992,21 +16005,21 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>77</v>
@@ -16018,16 +16031,16 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>111</v>
+        <v>601</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>112</v>
+        <v>602</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>113</v>
+        <v>603</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>114</v>
+        <v>604</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16065,37 +16078,37 @@
         <v>77</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC121" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>118</v>
+        <v>600</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>102</v>
+        <v>584</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>77</v>
@@ -16106,46 +16119,44 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>582</v>
+        <v>77</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>111</v>
+        <v>601</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>77</v>
       </c>
@@ -16193,25 +16204,25 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>102</v>
+        <v>584</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>77</v>
@@ -16233,13 +16244,13 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>77</v>
@@ -16248,7 +16259,7 @@
         <v>77</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>104</v>
+        <v>580</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>609</v>
@@ -16256,9 +16267,7 @@
       <c r="M123" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="N123" t="s" s="2">
-        <v>530</v>
-      </c>
+      <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -16310,10 +16319,10 @@
         <v>608</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>100</v>
@@ -16325,7 +16334,7 @@
         <v>77</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>108</v>
+        <v>584</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>77</v>
@@ -16362,17 +16371,15 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>612</v>
+        <v>105</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>77</v>
@@ -16421,7 +16428,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>611</v>
+        <v>107</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -16430,16 +16437,16 @@
         <v>88</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>614</v>
+        <v>77</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>578</v>
+        <v>108</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>77</v>
@@ -16450,24 +16457,24 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>77</v>
@@ -16476,16 +16483,16 @@
         <v>77</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>616</v>
+        <v>112</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>617</v>
+        <v>113</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>530</v>
+        <v>114</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16523,37 +16530,37 @@
         <v>77</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="AC125" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AD125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>615</v>
+        <v>118</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>578</v>
+        <v>102</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>77</v>
@@ -16564,45 +16571,45 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>77</v>
+        <v>588</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I126" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I126" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J126" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>619</v>
+        <v>111</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>357</v>
+        <v>114</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>622</v>
+        <v>217</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>77</v>
@@ -16651,7 +16658,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -16663,23 +16670,481 @@
         <v>100</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL126" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O127" s="2"/>
+      <c r="P127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O128" s="2"/>
+      <c r="P128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AM126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN126" t="s" s="2">
+      <c r="N129" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O129" s="2"/>
+      <c r="P129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="P130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN130" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN126">
+  <autoFilter ref="A1:AN130">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16689,7 +17154,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI125">
+  <conditionalFormatting sqref="A2:AI129">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
